--- a/city-metro-visualization/data/北京/basic_metro_info.xlsx
+++ b/city-metro-visualization/data/北京/basic_metro_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="1440">
   <si>
     <t>line_name</t>
   </si>
@@ -853,7 +853,7 @@
     <t>上地</t>
   </si>
   <si>
-    <t>清河</t>
+    <t>清河站</t>
   </si>
   <si>
     <t>西二旗</t>
@@ -1009,6 +1009,18 @@
     <t>农大南路</t>
   </si>
   <si>
+    <t>万泉河桥</t>
+  </si>
+  <si>
+    <t>苏州桥</t>
+  </si>
+  <si>
+    <t>万寿寺</t>
+  </si>
+  <si>
+    <t>甘家口</t>
+  </si>
+  <si>
     <t>高碑店</t>
   </si>
   <si>
@@ -1111,6 +1123,15 @@
     <t>大葆台</t>
   </si>
   <si>
+    <t>白盆窑</t>
+  </si>
+  <si>
+    <t>花乡东桥</t>
+  </si>
+  <si>
+    <t>东管头南</t>
+  </si>
+  <si>
     <t>T3航站楼</t>
   </si>
   <si>
@@ -1399,7 +1420,7 @@
     <t>dong wu yuan</t>
   </si>
   <si>
-    <t>guo jia tu shu guan</t>
+    <t>GuoJia TuShuGuan</t>
   </si>
   <si>
     <t>wei gong cun</t>
@@ -1687,7 +1708,7 @@
     <t>yu xin</t>
   </si>
   <si>
-    <t>huo ying</t>
+    <t>HuoYing</t>
   </si>
   <si>
     <t>hui long guan dong da jie</t>
@@ -1735,7 +1756,7 @@
     <t>ying hai</t>
   </si>
   <si>
-    <t>guo gong zhuang</t>
+    <t>GuoGongZhuang</t>
   </si>
   <si>
     <t>feng tai ke ji yuan</t>
@@ -1837,7 +1858,7 @@
     <t>ji jia miao</t>
   </si>
   <si>
-    <t>shou jing mao</t>
+    <t>ShouJingMao</t>
   </si>
   <si>
     <t>feng tai zhan</t>
@@ -1873,10 +1894,10 @@
     <t>shang di</t>
   </si>
   <si>
-    <t>QingHe</t>
-  </si>
-  <si>
-    <t>xi er qi</t>
+    <t>QingHe Zhan</t>
+  </si>
+  <si>
+    <t>XiErQi</t>
   </si>
   <si>
     <t>long ze</t>
@@ -2029,6 +2050,18 @@
     <t>nong da nan lu</t>
   </si>
   <si>
+    <t>WanQuanHe Qiao</t>
+  </si>
+  <si>
+    <t>SuZhou Qiao</t>
+  </si>
+  <si>
+    <t>WanShouSi</t>
+  </si>
+  <si>
+    <t>GanJiaKou</t>
+  </si>
+  <si>
     <t>gao bei dian</t>
   </si>
   <si>
@@ -2128,6 +2161,15 @@
     <t>da bao tai</t>
   </si>
   <si>
+    <t>BaiPen Yao</t>
+  </si>
+  <si>
+    <t>HuaXiang DongQiao</t>
+  </si>
+  <si>
+    <t>DongGuanTou Nan</t>
+  </si>
+  <si>
     <t>T3 hang zhan lou</t>
   </si>
   <si>
@@ -3046,6 +3088,18 @@
     <t>116.282272</t>
   </si>
   <si>
+    <t>116.300157</t>
+  </si>
+  <si>
+    <t>116.308092</t>
+  </si>
+  <si>
+    <t>116.309904</t>
+  </si>
+  <si>
+    <t>116.334534</t>
+  </si>
+  <si>
     <t>116.531421</t>
   </si>
   <si>
@@ -3148,6 +3202,15 @@
     <t>116.291681</t>
   </si>
   <si>
+    <t>116.313391</t>
+  </si>
+  <si>
+    <t>116.320160</t>
+  </si>
+  <si>
+    <t>116.321319</t>
+  </si>
+  <si>
     <t>116.615583</t>
   </si>
   <si>
@@ -4066,6 +4129,18 @@
     <t>40.021398</t>
   </si>
   <si>
+    <t>39.985067</t>
+  </si>
+  <si>
+    <t>39.962052</t>
+  </si>
+  <si>
+    <t>39.947773</t>
+  </si>
+  <si>
+    <t>39.923392</t>
+  </si>
+  <si>
     <t>39.909448</t>
   </si>
   <si>
@@ -4166,6 +4241,15 @@
   </si>
   <si>
     <t>39.807810</t>
+  </si>
+  <si>
+    <t>39.819590</t>
+  </si>
+  <si>
+    <t>39.829272</t>
+  </si>
+  <si>
+    <t>39.852631</t>
   </si>
   <si>
     <t>40.052657</t>
@@ -4607,7 +4691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H406"/>
+  <dimension ref="A1:H415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4653,16 +4737,16 @@
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="H2" t="s">
-        <v>1072</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4679,16 +4763,16 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
       <c r="H3" t="s">
-        <v>1073</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4705,16 +4789,16 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
       <c r="H4" t="s">
-        <v>1074</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4731,16 +4815,16 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="H5" t="s">
-        <v>1075</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4757,16 +4841,16 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="H6" t="s">
-        <v>1076</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4783,16 +4867,16 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="H7" t="s">
-        <v>1077</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4809,16 +4893,16 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="H8" t="s">
-        <v>1078</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4835,16 +4919,16 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="H9" t="s">
-        <v>1079</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4861,16 +4945,16 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="H10" t="s">
-        <v>1080</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4887,16 +4971,16 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="H11" t="s">
-        <v>1081</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4913,16 +4997,16 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="H12" t="s">
-        <v>1082</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4939,16 +5023,16 @@
         <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="H13" t="s">
-        <v>1083</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4965,16 +5049,16 @@
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="H14" t="s">
-        <v>1084</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4991,16 +5075,16 @@
         <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F15">
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="H15" t="s">
-        <v>1085</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5017,16 +5101,16 @@
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F16">
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="H16" t="s">
-        <v>1086</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5043,16 +5127,16 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="F17">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="H17" t="s">
-        <v>1087</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5069,16 +5153,16 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="H18" t="s">
-        <v>1088</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5095,16 +5179,16 @@
         <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="F19">
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="H19" t="s">
-        <v>1089</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5121,16 +5205,16 @@
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="F20">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="H20" t="s">
-        <v>1090</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5147,16 +5231,16 @@
         <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="F21">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="H21" t="s">
-        <v>1091</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5173,16 +5257,16 @@
         <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F22">
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="H22" t="s">
-        <v>1092</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5199,16 +5283,16 @@
         <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="F23">
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="H23" t="s">
-        <v>1093</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5225,16 +5309,16 @@
         <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="F24">
         <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="H24" t="s">
-        <v>1094</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5251,16 +5335,16 @@
         <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F25">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="H25" t="s">
-        <v>1095</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5277,16 +5361,16 @@
         <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="F26">
         <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="H26" t="s">
-        <v>1096</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5303,16 +5387,16 @@
         <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="F27">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
       <c r="H27" t="s">
-        <v>1097</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5329,16 +5413,16 @@
         <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F28">
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="H28" t="s">
-        <v>1098</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5355,16 +5439,16 @@
         <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="F29">
         <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="H29" t="s">
-        <v>1099</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5381,16 +5465,16 @@
         <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="F30">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="H30" t="s">
-        <v>1100</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5407,16 +5491,16 @@
         <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="F31">
         <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="H31" t="s">
-        <v>1101</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5433,16 +5517,16 @@
         <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="H32" t="s">
-        <v>1102</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5459,16 +5543,16 @@
         <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="H33" t="s">
-        <v>1103</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5485,16 +5569,16 @@
         <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="H34" t="s">
-        <v>1104</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5511,16 +5595,16 @@
         <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="F35">
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="H35" t="s">
-        <v>1105</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5537,16 +5621,16 @@
         <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F36">
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="H36" t="s">
-        <v>1106</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5563,16 +5647,16 @@
         <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="H37" t="s">
-        <v>1107</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5589,16 +5673,16 @@
         <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="F38">
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="H38" t="s">
-        <v>1108</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5615,16 +5699,16 @@
         <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="F39">
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="H39" t="s">
-        <v>1096</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5641,16 +5725,16 @@
         <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="F40">
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="H40" t="s">
-        <v>1109</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5667,16 +5751,16 @@
         <v>91</v>
       </c>
       <c r="E41" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="F41">
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="H41" t="s">
-        <v>1110</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5693,16 +5777,16 @@
         <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="F42">
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="H42" t="s">
-        <v>1111</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -5719,16 +5803,16 @@
         <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F43">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="H43" t="s">
-        <v>1112</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5745,16 +5829,16 @@
         <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F44">
         <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="H44" t="s">
-        <v>1113</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5771,16 +5855,16 @@
         <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="F45">
         <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="H45" t="s">
-        <v>1114</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5797,16 +5881,16 @@
         <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="F46">
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="H46" t="s">
-        <v>1090</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5823,16 +5907,16 @@
         <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="F47">
         <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="H47" t="s">
-        <v>1115</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -5849,16 +5933,16 @@
         <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F48">
         <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="H48" t="s">
-        <v>1116</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -5875,16 +5959,16 @@
         <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F49">
         <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="H49" t="s">
-        <v>1117</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -5901,16 +5985,16 @@
         <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="H50" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5927,16 +6011,16 @@
         <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="F51">
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="H51" t="s">
-        <v>1119</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5953,16 +6037,16 @@
         <v>101</v>
       </c>
       <c r="E52" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F52">
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="H52" t="s">
-        <v>1120</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5979,16 +6063,16 @@
         <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="F53">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="H53" t="s">
-        <v>1121</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6005,16 +6089,16 @@
         <v>103</v>
       </c>
       <c r="E54" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="H54" t="s">
-        <v>1122</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6031,16 +6115,16 @@
         <v>104</v>
       </c>
       <c r="E55" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="H55" t="s">
-        <v>1123</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -6057,16 +6141,16 @@
         <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="F56">
         <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="H56" t="s">
-        <v>1124</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6083,16 +6167,16 @@
         <v>106</v>
       </c>
       <c r="E57" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="F57">
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="H57" t="s">
-        <v>1125</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -6109,16 +6193,16 @@
         <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="F58">
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="H58" t="s">
-        <v>1126</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -6135,16 +6219,16 @@
         <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="F59">
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="H59" t="s">
-        <v>1127</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6161,16 +6245,16 @@
         <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F60">
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="H60" t="s">
-        <v>1128</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6187,16 +6271,16 @@
         <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F61">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="H61" t="s">
-        <v>1129</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6213,16 +6297,16 @@
         <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F62">
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="H62" t="s">
-        <v>1130</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6239,16 +6323,16 @@
         <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="F63">
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="H63" t="s">
-        <v>1131</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6265,16 +6349,16 @@
         <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="F64">
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="H64" t="s">
-        <v>1132</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6291,16 +6375,16 @@
         <v>114</v>
       </c>
       <c r="E65" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="F65">
         <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="H65" t="s">
-        <v>1133</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6317,16 +6401,16 @@
         <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="F66">
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="H66" t="s">
-        <v>1134</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6343,16 +6427,16 @@
         <v>94</v>
       </c>
       <c r="E67" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F67">
         <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="H67" t="s">
-        <v>1113</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6369,16 +6453,16 @@
         <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="F68">
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="H68" t="s">
-        <v>1091</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6395,16 +6479,16 @@
         <v>116</v>
       </c>
       <c r="E69" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="F69">
         <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="H69" t="s">
-        <v>1135</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6421,16 +6505,16 @@
         <v>117</v>
       </c>
       <c r="E70" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="F70">
         <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="H70" t="s">
-        <v>1136</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6447,16 +6531,16 @@
         <v>118</v>
       </c>
       <c r="E71" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F71">
         <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="H71" t="s">
-        <v>1137</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6473,16 +6557,16 @@
         <v>119</v>
       </c>
       <c r="E72" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="F72">
         <v>23</v>
       </c>
       <c r="G72" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="H72" t="s">
-        <v>1138</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6499,16 +6583,16 @@
         <v>98</v>
       </c>
       <c r="E73" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F73">
         <v>24</v>
       </c>
       <c r="G73" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="H73" t="s">
-        <v>1117</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6525,16 +6609,16 @@
         <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="F74">
         <v>25</v>
       </c>
       <c r="G74" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="H74" t="s">
-        <v>1139</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6551,16 +6635,16 @@
         <v>121</v>
       </c>
       <c r="E75" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="F75">
         <v>26</v>
       </c>
       <c r="G75" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="H75" t="s">
-        <v>1140</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6577,16 +6661,16 @@
         <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="F76">
         <v>27</v>
       </c>
       <c r="G76" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="H76" t="s">
-        <v>1141</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -6603,16 +6687,16 @@
         <v>123</v>
       </c>
       <c r="E77" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F77">
         <v>28</v>
       </c>
       <c r="G77" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="H77" t="s">
-        <v>1142</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -6629,16 +6713,16 @@
         <v>124</v>
       </c>
       <c r="E78" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F78">
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="H78" t="s">
-        <v>1143</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6655,16 +6739,16 @@
         <v>125</v>
       </c>
       <c r="E79" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="F79">
         <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="H79" t="s">
-        <v>1144</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6681,16 +6765,16 @@
         <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="F80">
         <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="H80" t="s">
-        <v>1145</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -6707,16 +6791,16 @@
         <v>127</v>
       </c>
       <c r="E81" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="F81">
         <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="H81" t="s">
-        <v>1146</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -6733,16 +6817,16 @@
         <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="F82">
         <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="H82" t="s">
-        <v>1147</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6759,16 +6843,16 @@
         <v>129</v>
       </c>
       <c r="E83" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="F83">
         <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="H83" t="s">
-        <v>1148</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -6785,16 +6869,16 @@
         <v>130</v>
       </c>
       <c r="E84" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F84">
         <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="H84" t="s">
-        <v>1149</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -6811,16 +6895,16 @@
         <v>131</v>
       </c>
       <c r="E85" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="H85" t="s">
-        <v>1150</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -6837,16 +6921,16 @@
         <v>132</v>
       </c>
       <c r="E86" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="F86">
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="H86" t="s">
-        <v>1151</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -6863,16 +6947,16 @@
         <v>133</v>
       </c>
       <c r="E87" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F87">
         <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="H87" t="s">
-        <v>1152</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -6889,16 +6973,16 @@
         <v>134</v>
       </c>
       <c r="E88" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="F88">
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="H88" t="s">
-        <v>1153</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -6915,16 +6999,16 @@
         <v>135</v>
       </c>
       <c r="E89" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F89">
         <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="H89" t="s">
-        <v>1154</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6941,16 +7025,16 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="F90">
         <v>6</v>
       </c>
       <c r="G90" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="H90" t="s">
-        <v>1110</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6967,16 +7051,16 @@
         <v>76</v>
       </c>
       <c r="E91" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F91">
         <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="H91" t="s">
-        <v>1095</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6993,16 +7077,16 @@
         <v>136</v>
       </c>
       <c r="E92" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="F92">
         <v>8</v>
       </c>
       <c r="G92" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="H92" t="s">
-        <v>1155</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7019,16 +7103,16 @@
         <v>137</v>
       </c>
       <c r="E93" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="F93">
         <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="H93" t="s">
-        <v>1156</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -7045,16 +7129,16 @@
         <v>138</v>
       </c>
       <c r="E94" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F94">
         <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="H94" t="s">
-        <v>1157</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -7071,16 +7155,16 @@
         <v>139</v>
       </c>
       <c r="E95" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="F95">
         <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="H95" t="s">
-        <v>1158</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -7097,16 +7181,16 @@
         <v>86</v>
       </c>
       <c r="E96" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="F96">
         <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="H96" t="s">
-        <v>1105</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -7123,16 +7207,16 @@
         <v>140</v>
       </c>
       <c r="E97" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="F97">
         <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="H97" t="s">
-        <v>1159</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -7149,16 +7233,16 @@
         <v>141</v>
       </c>
       <c r="E98" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="F98">
         <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="H98" t="s">
-        <v>1160</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -7175,16 +7259,16 @@
         <v>142</v>
       </c>
       <c r="E99" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F99">
         <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="H99" t="s">
-        <v>1161</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -7201,16 +7285,16 @@
         <v>143</v>
       </c>
       <c r="E100" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="F100">
         <v>16</v>
       </c>
       <c r="G100" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="H100" t="s">
-        <v>1162</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -7227,16 +7311,16 @@
         <v>144</v>
       </c>
       <c r="E101" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F101">
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="H101" t="s">
-        <v>1163</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -7253,16 +7337,16 @@
         <v>145</v>
       </c>
       <c r="E102" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F102">
         <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="H102" t="s">
-        <v>1164</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -7279,16 +7363,16 @@
         <v>146</v>
       </c>
       <c r="E103" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F103">
         <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="H103" t="s">
-        <v>1165</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -7305,16 +7389,16 @@
         <v>147</v>
       </c>
       <c r="E104" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F104">
         <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="H104" t="s">
-        <v>1166</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -7331,16 +7415,16 @@
         <v>148</v>
       </c>
       <c r="E105" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="F105">
         <v>21</v>
       </c>
       <c r="G105" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="H105" t="s">
-        <v>1167</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -7357,16 +7441,16 @@
         <v>149</v>
       </c>
       <c r="E106" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="F106">
         <v>22</v>
       </c>
       <c r="G106" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="H106" t="s">
-        <v>1168</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -7383,16 +7467,16 @@
         <v>150</v>
       </c>
       <c r="E107" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="F107">
         <v>23</v>
       </c>
       <c r="G107" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="H107" t="s">
-        <v>1169</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -7409,16 +7493,16 @@
         <v>151</v>
       </c>
       <c r="E108" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="H108" t="s">
-        <v>1170</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -7435,16 +7519,16 @@
         <v>152</v>
       </c>
       <c r="E109" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="F109">
         <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="H109" t="s">
-        <v>1171</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -7461,16 +7545,16 @@
         <v>153</v>
       </c>
       <c r="E110" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F110">
         <v>3</v>
       </c>
       <c r="G110" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="H110" t="s">
-        <v>1172</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7487,16 +7571,16 @@
         <v>154</v>
       </c>
       <c r="E111" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="F111">
         <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="H111" t="s">
-        <v>1173</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -7513,16 +7597,16 @@
         <v>155</v>
       </c>
       <c r="E112" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F112">
         <v>5</v>
       </c>
       <c r="G112" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="H112" t="s">
-        <v>1174</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -7539,16 +7623,16 @@
         <v>156</v>
       </c>
       <c r="E113" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="F113">
         <v>6</v>
       </c>
       <c r="G113" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="H113" t="s">
-        <v>1175</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -7565,16 +7649,16 @@
         <v>157</v>
       </c>
       <c r="E114" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="F114">
         <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="H114" t="s">
-        <v>1176</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -7591,16 +7675,16 @@
         <v>158</v>
       </c>
       <c r="E115" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F115">
         <v>8</v>
       </c>
       <c r="G115" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="H115" t="s">
-        <v>1177</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -7617,16 +7701,16 @@
         <v>159</v>
       </c>
       <c r="E116" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="F116">
         <v>9</v>
       </c>
       <c r="G116" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="H116" t="s">
-        <v>1178</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -7643,16 +7727,16 @@
         <v>160</v>
       </c>
       <c r="E117" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="F117">
         <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="H117" t="s">
-        <v>1179</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -7669,16 +7753,16 @@
         <v>161</v>
       </c>
       <c r="E118" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="F118">
         <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="H118" t="s">
-        <v>1180</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -7695,16 +7779,16 @@
         <v>162</v>
       </c>
       <c r="E119" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F119">
         <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="H119" t="s">
-        <v>1181</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -7721,16 +7805,16 @@
         <v>163</v>
       </c>
       <c r="E120" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="F120">
         <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="H120" t="s">
-        <v>1182</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -7747,16 +7831,16 @@
         <v>164</v>
       </c>
       <c r="E121" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F121">
         <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H121" t="s">
-        <v>1183</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -7773,16 +7857,16 @@
         <v>165</v>
       </c>
       <c r="E122" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="F122">
         <v>15</v>
       </c>
       <c r="G122" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="H122" t="s">
-        <v>1184</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -7799,16 +7883,16 @@
         <v>166</v>
       </c>
       <c r="E123" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="F123">
         <v>16</v>
       </c>
       <c r="G123" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="H123" t="s">
-        <v>1185</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -7825,16 +7909,16 @@
         <v>89</v>
       </c>
       <c r="E124" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="F124">
         <v>17</v>
       </c>
       <c r="G124" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="H124" t="s">
-        <v>1108</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -7851,16 +7935,16 @@
         <v>137</v>
       </c>
       <c r="E125" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="F125">
         <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="H125" t="s">
-        <v>1156</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -7877,16 +7961,16 @@
         <v>167</v>
       </c>
       <c r="E126" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F126">
         <v>19</v>
       </c>
       <c r="G126" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="H126" t="s">
-        <v>1186</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7903,16 +7987,16 @@
         <v>168</v>
       </c>
       <c r="E127" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="F127">
         <v>20</v>
       </c>
       <c r="G127" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="H127" t="s">
-        <v>1187</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7929,16 +8013,16 @@
         <v>118</v>
       </c>
       <c r="E128" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F128">
         <v>21</v>
       </c>
       <c r="G128" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="H128" t="s">
-        <v>1137</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7955,16 +8039,16 @@
         <v>97</v>
       </c>
       <c r="E129" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F129">
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="H129" t="s">
-        <v>1116</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -7981,16 +8065,16 @@
         <v>169</v>
       </c>
       <c r="E130" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="F130">
         <v>23</v>
       </c>
       <c r="G130" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="H130" t="s">
-        <v>1188</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -8007,16 +8091,16 @@
         <v>170</v>
       </c>
       <c r="E131" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="F131">
         <v>24</v>
       </c>
       <c r="G131" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="H131" t="s">
-        <v>1189</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -8033,16 +8117,16 @@
         <v>171</v>
       </c>
       <c r="E132" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="F132">
         <v>25</v>
       </c>
       <c r="G132" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="H132" t="s">
-        <v>1190</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -8059,16 +8143,16 @@
         <v>172</v>
       </c>
       <c r="E133" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="F133">
         <v>26</v>
       </c>
       <c r="G133" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="H133" t="s">
-        <v>1191</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -8085,16 +8169,16 @@
         <v>173</v>
       </c>
       <c r="E134" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="F134">
         <v>27</v>
       </c>
       <c r="G134" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="H134" t="s">
-        <v>1192</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -8111,16 +8195,16 @@
         <v>174</v>
       </c>
       <c r="E135" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="F135">
         <v>28</v>
       </c>
       <c r="G135" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="H135" t="s">
-        <v>1193</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -8137,16 +8221,16 @@
         <v>175</v>
       </c>
       <c r="E136" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="F136">
         <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="H136" t="s">
-        <v>1194</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -8163,16 +8247,16 @@
         <v>176</v>
       </c>
       <c r="E137" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="F137">
         <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="H137" t="s">
-        <v>1195</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -8189,16 +8273,16 @@
         <v>177</v>
       </c>
       <c r="E138" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="F138">
         <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="H138" t="s">
-        <v>1196</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -8215,16 +8299,16 @@
         <v>53</v>
       </c>
       <c r="E139" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F139">
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="H139" t="s">
-        <v>1072</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -8241,16 +8325,16 @@
         <v>178</v>
       </c>
       <c r="E140" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="F140">
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="H140" t="s">
-        <v>1197</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -8267,16 +8351,16 @@
         <v>179</v>
       </c>
       <c r="E141" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="F141">
         <v>2</v>
       </c>
       <c r="G141" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="H141" t="s">
-        <v>1198</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -8293,16 +8377,16 @@
         <v>180</v>
       </c>
       <c r="E142" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F142">
         <v>3</v>
       </c>
       <c r="G142" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="H142" t="s">
-        <v>1199</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -8319,16 +8403,16 @@
         <v>181</v>
       </c>
       <c r="E143" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="F143">
         <v>4</v>
       </c>
       <c r="G143" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="H143" t="s">
-        <v>1200</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -8345,16 +8429,16 @@
         <v>182</v>
       </c>
       <c r="E144" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="F144">
         <v>5</v>
       </c>
       <c r="G144" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="H144" t="s">
-        <v>1201</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -8371,16 +8455,16 @@
         <v>183</v>
       </c>
       <c r="E145" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="F145">
         <v>6</v>
       </c>
       <c r="G145" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="H145" t="s">
-        <v>1202</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -8397,16 +8481,16 @@
         <v>184</v>
       </c>
       <c r="E146" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="F146">
         <v>7</v>
       </c>
       <c r="G146" t="s">
-        <v>863</v>
+        <v>877</v>
       </c>
       <c r="H146" t="s">
-        <v>1203</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -8423,16 +8507,16 @@
         <v>185</v>
       </c>
       <c r="E147" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="F147">
         <v>8</v>
       </c>
       <c r="G147" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="H147" t="s">
-        <v>1204</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -8449,16 +8533,16 @@
         <v>186</v>
       </c>
       <c r="E148" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="F148">
         <v>9</v>
       </c>
       <c r="G148" t="s">
-        <v>865</v>
+        <v>879</v>
       </c>
       <c r="H148" t="s">
-        <v>1205</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -8475,16 +8559,16 @@
         <v>187</v>
       </c>
       <c r="E149" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="F149">
         <v>10</v>
       </c>
       <c r="G149" t="s">
-        <v>866</v>
+        <v>880</v>
       </c>
       <c r="H149" t="s">
-        <v>1206</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -8501,16 +8585,16 @@
         <v>188</v>
       </c>
       <c r="E150" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="F150">
         <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="H150" t="s">
-        <v>1207</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -8527,16 +8611,16 @@
         <v>189</v>
       </c>
       <c r="E151" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="F151">
         <v>12</v>
       </c>
       <c r="G151" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="H151" t="s">
-        <v>1208</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -8553,16 +8637,16 @@
         <v>190</v>
       </c>
       <c r="E152" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F152">
         <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="H152" t="s">
-        <v>1209</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -8579,16 +8663,16 @@
         <v>191</v>
       </c>
       <c r="E153" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="F153">
         <v>14</v>
       </c>
       <c r="G153" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
       <c r="H153" t="s">
-        <v>1210</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -8605,16 +8689,16 @@
         <v>192</v>
       </c>
       <c r="E154" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="F154">
         <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="H154" t="s">
-        <v>1211</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -8631,16 +8715,16 @@
         <v>193</v>
       </c>
       <c r="E155" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="F155">
         <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>872</v>
+        <v>886</v>
       </c>
       <c r="H155" t="s">
-        <v>1212</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -8657,16 +8741,16 @@
         <v>194</v>
       </c>
       <c r="E156" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F156">
         <v>17</v>
       </c>
       <c r="G156" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="H156" t="s">
-        <v>1213</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -8683,16 +8767,16 @@
         <v>195</v>
       </c>
       <c r="E157" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="F157">
         <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="H157" t="s">
-        <v>1214</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -8709,16 +8793,16 @@
         <v>196</v>
       </c>
       <c r="E158" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="F158">
         <v>19</v>
       </c>
       <c r="G158" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="H158" t="s">
-        <v>1215</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -8735,16 +8819,16 @@
         <v>197</v>
       </c>
       <c r="E159" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="F159">
         <v>20</v>
       </c>
       <c r="G159" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="H159" t="s">
-        <v>1216</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -8761,16 +8845,16 @@
         <v>135</v>
       </c>
       <c r="E160" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F160">
         <v>21</v>
       </c>
       <c r="G160" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="H160" t="s">
-        <v>1154</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -8787,16 +8871,16 @@
         <v>198</v>
       </c>
       <c r="E161" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F161">
         <v>22</v>
       </c>
       <c r="G161" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="H161" t="s">
-        <v>1217</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -8813,16 +8897,16 @@
         <v>199</v>
       </c>
       <c r="E162" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="F162">
         <v>23</v>
       </c>
       <c r="G162" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="H162" t="s">
-        <v>1218</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -8839,16 +8923,16 @@
         <v>200</v>
       </c>
       <c r="E163" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="F163">
         <v>24</v>
       </c>
       <c r="G163" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="H163" t="s">
-        <v>1219</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -8865,16 +8949,16 @@
         <v>115</v>
       </c>
       <c r="E164" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="F164">
         <v>25</v>
       </c>
       <c r="G164" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="H164" t="s">
-        <v>1134</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -8891,16 +8975,16 @@
         <v>201</v>
       </c>
       <c r="E165" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="F165">
         <v>26</v>
       </c>
       <c r="G165" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="H165" t="s">
-        <v>1220</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8917,16 +9001,16 @@
         <v>202</v>
       </c>
       <c r="E166" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="F166">
         <v>27</v>
       </c>
       <c r="G166" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="H166" t="s">
-        <v>1221</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -8943,16 +9027,16 @@
         <v>203</v>
       </c>
       <c r="E167" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F167">
         <v>28</v>
       </c>
       <c r="G167" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
       <c r="H167" t="s">
-        <v>1222</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -8969,16 +9053,16 @@
         <v>204</v>
       </c>
       <c r="E168" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="F168">
         <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="H168" t="s">
-        <v>1223</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -8995,16 +9079,16 @@
         <v>205</v>
       </c>
       <c r="E169" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="F169">
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>884</v>
+        <v>898</v>
       </c>
       <c r="H169" t="s">
-        <v>1224</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -9021,16 +9105,16 @@
         <v>167</v>
       </c>
       <c r="E170" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F170">
         <v>2</v>
       </c>
       <c r="G170" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="H170" t="s">
-        <v>1186</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -9047,16 +9131,16 @@
         <v>206</v>
       </c>
       <c r="E171" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F171">
         <v>3</v>
       </c>
       <c r="G171" t="s">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="H171" t="s">
-        <v>1225</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -9073,16 +9157,16 @@
         <v>84</v>
       </c>
       <c r="E172" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="F172">
         <v>4</v>
       </c>
       <c r="G172" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="H172" t="s">
-        <v>1103</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -9099,16 +9183,16 @@
         <v>207</v>
       </c>
       <c r="E173" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="F173">
         <v>5</v>
       </c>
       <c r="G173" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="H173" t="s">
-        <v>1226</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -9125,16 +9209,16 @@
         <v>208</v>
       </c>
       <c r="E174" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F174">
         <v>6</v>
       </c>
       <c r="G174" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
       <c r="H174" t="s">
-        <v>1227</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -9151,16 +9235,16 @@
         <v>209</v>
       </c>
       <c r="E175" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="F175">
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
       <c r="H175" t="s">
-        <v>1228</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -9177,16 +9261,16 @@
         <v>210</v>
       </c>
       <c r="E176" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="F176">
         <v>8</v>
       </c>
       <c r="G176" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
       <c r="H176" t="s">
-        <v>1229</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -9203,16 +9287,16 @@
         <v>211</v>
       </c>
       <c r="E177" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="F177">
         <v>9</v>
       </c>
       <c r="G177" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="H177" t="s">
-        <v>1230</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -9229,16 +9313,16 @@
         <v>212</v>
       </c>
       <c r="E178" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="F178">
         <v>10</v>
       </c>
       <c r="G178" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
       <c r="H178" t="s">
-        <v>1231</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -9255,16 +9339,16 @@
         <v>213</v>
       </c>
       <c r="E179" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="F179">
         <v>11</v>
       </c>
       <c r="G179" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="H179" t="s">
-        <v>1232</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -9281,16 +9365,16 @@
         <v>214</v>
       </c>
       <c r="E180" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="F180">
         <v>12</v>
       </c>
       <c r="G180" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
       <c r="H180" t="s">
-        <v>1233</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -9307,16 +9391,16 @@
         <v>215</v>
       </c>
       <c r="E181" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="F181">
         <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="H181" t="s">
-        <v>1234</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -9333,16 +9417,16 @@
         <v>216</v>
       </c>
       <c r="E182" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="F182">
         <v>14</v>
       </c>
       <c r="G182" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
       <c r="H182" t="s">
-        <v>1235</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -9359,16 +9443,16 @@
         <v>217</v>
       </c>
       <c r="E183" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="F183">
         <v>15</v>
       </c>
       <c r="G183" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="H183" t="s">
-        <v>1236</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -9385,16 +9469,16 @@
         <v>218</v>
       </c>
       <c r="E184" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="F184">
         <v>16</v>
       </c>
       <c r="G184" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="H184" t="s">
-        <v>1237</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -9411,16 +9495,16 @@
         <v>219</v>
       </c>
       <c r="E185" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="F185">
         <v>17</v>
       </c>
       <c r="G185" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="H185" t="s">
-        <v>1238</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -9437,16 +9521,16 @@
         <v>220</v>
       </c>
       <c r="E186" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="F186">
         <v>18</v>
       </c>
       <c r="G186" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="H186" t="s">
-        <v>1239</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -9463,16 +9547,16 @@
         <v>221</v>
       </c>
       <c r="E187" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="F187">
         <v>19</v>
       </c>
       <c r="G187" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="H187" t="s">
-        <v>1240</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -9489,16 +9573,16 @@
         <v>199</v>
       </c>
       <c r="E188" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="F188">
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="H188" t="s">
-        <v>1218</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -9515,16 +9599,16 @@
         <v>222</v>
       </c>
       <c r="E189" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="F189">
         <v>2</v>
       </c>
       <c r="G189" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="H189" t="s">
-        <v>1241</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -9541,16 +9625,16 @@
         <v>223</v>
       </c>
       <c r="E190" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="F190">
         <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="H190" t="s">
-        <v>1242</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -9567,16 +9651,16 @@
         <v>224</v>
       </c>
       <c r="E191" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="F191">
         <v>4</v>
       </c>
       <c r="G191" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
       <c r="H191" t="s">
-        <v>1243</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -9593,16 +9677,16 @@
         <v>225</v>
       </c>
       <c r="E192" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="F192">
         <v>5</v>
       </c>
       <c r="G192" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="H192" t="s">
-        <v>1244</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -9619,16 +9703,16 @@
         <v>226</v>
       </c>
       <c r="E193" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F193">
         <v>6</v>
       </c>
       <c r="G193" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="H193" t="s">
-        <v>1245</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -9645,16 +9729,16 @@
         <v>227</v>
       </c>
       <c r="E194" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="F194">
         <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="H194" t="s">
-        <v>1246</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -9671,16 +9755,16 @@
         <v>228</v>
       </c>
       <c r="E195" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="F195">
         <v>8</v>
       </c>
       <c r="G195" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
       <c r="H195" t="s">
-        <v>1247</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -9697,16 +9781,16 @@
         <v>229</v>
       </c>
       <c r="E196" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="F196">
         <v>9</v>
       </c>
       <c r="G196" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
       <c r="H196" t="s">
-        <v>1248</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -9723,16 +9807,16 @@
         <v>230</v>
       </c>
       <c r="E197" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="F197">
         <v>10</v>
       </c>
       <c r="G197" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="H197" t="s">
-        <v>1249</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -9749,16 +9833,16 @@
         <v>231</v>
       </c>
       <c r="E198" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="F198">
         <v>11</v>
       </c>
       <c r="G198" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
       <c r="H198" t="s">
-        <v>1250</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -9775,16 +9859,16 @@
         <v>232</v>
       </c>
       <c r="E199" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="F199">
         <v>12</v>
       </c>
       <c r="G199" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
       <c r="H199" t="s">
-        <v>1251</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -9801,16 +9885,16 @@
         <v>233</v>
       </c>
       <c r="E200" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="F200">
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
       <c r="H200" t="s">
-        <v>1252</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -9827,16 +9911,16 @@
         <v>234</v>
       </c>
       <c r="E201" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="F201">
         <v>2</v>
       </c>
       <c r="G201" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
       <c r="H201" t="s">
-        <v>1253</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -9853,16 +9937,16 @@
         <v>235</v>
       </c>
       <c r="E202" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="F202">
         <v>3</v>
       </c>
       <c r="G202" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
       <c r="H202" t="s">
-        <v>1254</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -9879,16 +9963,16 @@
         <v>236</v>
       </c>
       <c r="E203" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="F203">
         <v>4</v>
       </c>
       <c r="G203" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
       <c r="H203" t="s">
-        <v>1255</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -9905,16 +9989,16 @@
         <v>237</v>
       </c>
       <c r="E204" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F204">
         <v>5</v>
       </c>
       <c r="G204" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
       <c r="H204" t="s">
-        <v>1256</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -9931,16 +10015,16 @@
         <v>238</v>
       </c>
       <c r="E205" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="F205">
         <v>6</v>
       </c>
       <c r="G205" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
       <c r="H205" t="s">
-        <v>1257</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -9957,16 +10041,16 @@
         <v>239</v>
       </c>
       <c r="E206" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="F206">
         <v>7</v>
       </c>
       <c r="G206" t="s">
-        <v>918</v>
+        <v>932</v>
       </c>
       <c r="H206" t="s">
-        <v>1258</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -9983,16 +10067,16 @@
         <v>240</v>
       </c>
       <c r="E207" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="F207">
         <v>8</v>
       </c>
       <c r="G207" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
       <c r="H207" t="s">
-        <v>1259</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -10009,16 +10093,16 @@
         <v>204</v>
       </c>
       <c r="E208" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="F208">
         <v>9</v>
       </c>
       <c r="G208" t="s">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="H208" t="s">
-        <v>1223</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10035,16 +10119,16 @@
         <v>68</v>
       </c>
       <c r="E209" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="F209">
         <v>10</v>
       </c>
       <c r="G209" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="H209" t="s">
-        <v>1087</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -10061,16 +10145,16 @@
         <v>241</v>
       </c>
       <c r="E210" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="F210">
         <v>11</v>
       </c>
       <c r="G210" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
       <c r="H210" t="s">
-        <v>1260</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -10087,16 +10171,16 @@
         <v>170</v>
       </c>
       <c r="E211" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="F211">
         <v>12</v>
       </c>
       <c r="G211" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="H211" t="s">
-        <v>1189</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -10113,16 +10197,16 @@
         <v>121</v>
       </c>
       <c r="E212" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="F212">
         <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="H212" t="s">
-        <v>1140</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -10139,16 +10223,16 @@
         <v>242</v>
       </c>
       <c r="E213" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="F213">
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
       <c r="H213" t="s">
-        <v>1261</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -10165,16 +10249,16 @@
         <v>243</v>
       </c>
       <c r="E214" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="F214">
         <v>2</v>
       </c>
       <c r="G214" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
       <c r="H214" t="s">
-        <v>1262</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -10191,16 +10275,16 @@
         <v>124</v>
       </c>
       <c r="E215" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F215">
         <v>3</v>
       </c>
       <c r="G215" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="H215" t="s">
-        <v>1143</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -10217,16 +10301,16 @@
         <v>244</v>
       </c>
       <c r="E216" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="F216">
         <v>4</v>
       </c>
       <c r="G216" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
       <c r="H216" t="s">
-        <v>1263</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -10243,16 +10327,16 @@
         <v>245</v>
       </c>
       <c r="E217" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="F217">
         <v>5</v>
       </c>
       <c r="G217" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
       <c r="H217" t="s">
-        <v>1264</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -10269,16 +10353,16 @@
         <v>246</v>
       </c>
       <c r="E218" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="F218">
         <v>6</v>
       </c>
       <c r="G218" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
       <c r="H218" t="s">
-        <v>1265</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -10295,16 +10379,16 @@
         <v>247</v>
       </c>
       <c r="E219" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="F219">
         <v>7</v>
       </c>
       <c r="G219" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="H219" t="s">
-        <v>1266</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -10321,16 +10405,16 @@
         <v>248</v>
       </c>
       <c r="E220" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="F220">
         <v>8</v>
       </c>
       <c r="G220" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
       <c r="H220" t="s">
-        <v>1267</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -10347,16 +10431,16 @@
         <v>209</v>
       </c>
       <c r="E221" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="F221">
         <v>9</v>
       </c>
       <c r="G221" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
       <c r="H221" t="s">
-        <v>1228</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -10373,16 +10457,16 @@
         <v>249</v>
       </c>
       <c r="E222" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F222">
         <v>10</v>
       </c>
       <c r="G222" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
       <c r="H222" t="s">
-        <v>1268</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -10399,16 +10483,16 @@
         <v>142</v>
       </c>
       <c r="E223" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F223">
         <v>11</v>
       </c>
       <c r="G223" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="H223" t="s">
-        <v>1161</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -10425,16 +10509,16 @@
         <v>250</v>
       </c>
       <c r="E224" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="F224">
         <v>12</v>
       </c>
       <c r="G224" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
       <c r="H224" t="s">
-        <v>1269</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -10451,16 +10535,16 @@
         <v>251</v>
       </c>
       <c r="E225" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="F225">
         <v>13</v>
       </c>
       <c r="G225" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
       <c r="H225" t="s">
-        <v>1270</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -10477,16 +10561,16 @@
         <v>252</v>
       </c>
       <c r="E226" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="F226">
         <v>14</v>
       </c>
       <c r="G226" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
       <c r="H226" t="s">
-        <v>1271</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -10503,16 +10587,16 @@
         <v>253</v>
       </c>
       <c r="E227" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="F227">
         <v>15</v>
       </c>
       <c r="G227" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
       <c r="H227" t="s">
-        <v>1272</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -10529,16 +10613,16 @@
         <v>254</v>
       </c>
       <c r="E228" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F228">
         <v>16</v>
       </c>
       <c r="G228" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
       <c r="H228" t="s">
-        <v>1273</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -10555,16 +10639,16 @@
         <v>255</v>
       </c>
       <c r="E229" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="F229">
         <v>17</v>
       </c>
       <c r="G229" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
       <c r="H229" t="s">
-        <v>1274</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -10581,16 +10665,16 @@
         <v>165</v>
       </c>
       <c r="E230" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="F230">
         <v>18</v>
       </c>
       <c r="G230" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="H230" t="s">
-        <v>1184</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -10607,16 +10691,16 @@
         <v>256</v>
       </c>
       <c r="E231" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F231">
         <v>19</v>
       </c>
       <c r="G231" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
       <c r="H231" t="s">
-        <v>1275</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -10633,16 +10717,16 @@
         <v>79</v>
       </c>
       <c r="E232" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F232">
         <v>20</v>
       </c>
       <c r="G232" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="H232" t="s">
-        <v>1098</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -10659,16 +10743,16 @@
         <v>195</v>
       </c>
       <c r="E233" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="F233">
         <v>21</v>
       </c>
       <c r="G233" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="H233" t="s">
-        <v>1214</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -10685,16 +10769,16 @@
         <v>257</v>
       </c>
       <c r="E234" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="F234">
         <v>22</v>
       </c>
       <c r="G234" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
       <c r="H234" t="s">
-        <v>1276</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -10711,16 +10795,16 @@
         <v>258</v>
       </c>
       <c r="E235" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="F235">
         <v>23</v>
       </c>
       <c r="G235" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
       <c r="H235" t="s">
-        <v>1277</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -10737,16 +10821,16 @@
         <v>259</v>
       </c>
       <c r="E236" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="F236">
         <v>24</v>
       </c>
       <c r="G236" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
       <c r="H236" t="s">
-        <v>1278</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -10763,16 +10847,16 @@
         <v>260</v>
       </c>
       <c r="E237" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="F237">
         <v>25</v>
       </c>
       <c r="G237" t="s">
-        <v>939</v>
+        <v>953</v>
       </c>
       <c r="H237" t="s">
-        <v>1279</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -10789,16 +10873,16 @@
         <v>261</v>
       </c>
       <c r="E238" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="F238">
         <v>26</v>
       </c>
       <c r="G238" t="s">
-        <v>940</v>
+        <v>954</v>
       </c>
       <c r="H238" t="s">
-        <v>1280</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -10815,16 +10899,16 @@
         <v>131</v>
       </c>
       <c r="E239" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="F239">
         <v>27</v>
       </c>
       <c r="G239" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="H239" t="s">
-        <v>1150</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -10841,16 +10925,16 @@
         <v>262</v>
       </c>
       <c r="E240" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="F240">
         <v>28</v>
       </c>
       <c r="G240" t="s">
-        <v>941</v>
+        <v>955</v>
       </c>
       <c r="H240" t="s">
-        <v>1281</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -10867,16 +10951,16 @@
         <v>263</v>
       </c>
       <c r="E241" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="F241">
         <v>29</v>
       </c>
       <c r="G241" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
       <c r="H241" t="s">
-        <v>1282</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -10893,16 +10977,16 @@
         <v>264</v>
       </c>
       <c r="E242" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="F242">
         <v>30</v>
       </c>
       <c r="G242" t="s">
-        <v>943</v>
+        <v>957</v>
       </c>
       <c r="H242" t="s">
-        <v>1283</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -10919,16 +11003,16 @@
         <v>111</v>
       </c>
       <c r="E243" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F243">
         <v>31</v>
       </c>
       <c r="G243" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="H243" t="s">
-        <v>1130</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -10945,16 +11029,16 @@
         <v>265</v>
       </c>
       <c r="E244" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="F244">
         <v>32</v>
       </c>
       <c r="G244" t="s">
-        <v>944</v>
+        <v>958</v>
       </c>
       <c r="H244" t="s">
-        <v>1284</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -10971,16 +11055,16 @@
         <v>266</v>
       </c>
       <c r="E245" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="F245">
         <v>33</v>
       </c>
       <c r="G245" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
       <c r="H245" t="s">
-        <v>1285</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -10997,16 +11081,16 @@
         <v>267</v>
       </c>
       <c r="E246" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="F246">
         <v>34</v>
       </c>
       <c r="G246" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
       <c r="H246" t="s">
-        <v>1286</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -11023,16 +11107,16 @@
         <v>268</v>
       </c>
       <c r="E247" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="F247">
         <v>35</v>
       </c>
       <c r="G247" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
       <c r="H247" t="s">
-        <v>1287</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11049,16 +11133,16 @@
         <v>269</v>
       </c>
       <c r="E248" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F248">
         <v>36</v>
       </c>
       <c r="G248" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
       <c r="H248" t="s">
-        <v>1288</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -11075,16 +11159,16 @@
         <v>270</v>
       </c>
       <c r="E249" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="F249">
         <v>37</v>
       </c>
       <c r="G249" t="s">
-        <v>949</v>
+        <v>963</v>
       </c>
       <c r="H249" t="s">
-        <v>1289</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -11101,16 +11185,16 @@
         <v>239</v>
       </c>
       <c r="E250" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="F250">
         <v>38</v>
       </c>
       <c r="G250" t="s">
-        <v>918</v>
+        <v>932</v>
       </c>
       <c r="H250" t="s">
-        <v>1258</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -11127,16 +11211,16 @@
         <v>271</v>
       </c>
       <c r="E251" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="F251">
         <v>39</v>
       </c>
       <c r="G251" t="s">
-        <v>950</v>
+        <v>964</v>
       </c>
       <c r="H251" t="s">
-        <v>1290</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -11153,16 +11237,16 @@
         <v>67</v>
       </c>
       <c r="E252" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F252">
         <v>40</v>
       </c>
       <c r="G252" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="H252" t="s">
-        <v>1086</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -11179,16 +11263,16 @@
         <v>272</v>
       </c>
       <c r="E253" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="F253">
         <v>41</v>
       </c>
       <c r="G253" t="s">
-        <v>951</v>
+        <v>965</v>
       </c>
       <c r="H253" t="s">
-        <v>1291</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -11205,16 +11289,16 @@
         <v>172</v>
       </c>
       <c r="E254" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="F254">
         <v>42</v>
       </c>
       <c r="G254" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="H254" t="s">
-        <v>1191</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -11231,16 +11315,16 @@
         <v>273</v>
       </c>
       <c r="E255" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="F255">
         <v>43</v>
       </c>
       <c r="G255" t="s">
-        <v>952</v>
+        <v>966</v>
       </c>
       <c r="H255" t="s">
-        <v>1292</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -11257,16 +11341,16 @@
         <v>274</v>
       </c>
       <c r="E256" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="F256">
         <v>44</v>
       </c>
       <c r="G256" t="s">
-        <v>953</v>
+        <v>967</v>
       </c>
       <c r="H256" t="s">
-        <v>1293</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -11283,16 +11367,16 @@
         <v>275</v>
       </c>
       <c r="E257" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="F257">
         <v>45</v>
       </c>
       <c r="G257" t="s">
-        <v>954</v>
+        <v>968</v>
       </c>
       <c r="H257" t="s">
-        <v>1294</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -11309,16 +11393,16 @@
         <v>98</v>
       </c>
       <c r="E258" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F258">
         <v>1</v>
       </c>
       <c r="G258" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="H258" t="s">
-        <v>1117</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -11335,16 +11419,16 @@
         <v>276</v>
       </c>
       <c r="E259" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="F259">
         <v>2</v>
       </c>
       <c r="G259" t="s">
-        <v>955</v>
+        <v>969</v>
       </c>
       <c r="H259" t="s">
-        <v>1295</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -11361,16 +11445,16 @@
         <v>245</v>
       </c>
       <c r="E260" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="F260">
         <v>3</v>
       </c>
       <c r="G260" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
       <c r="H260" t="s">
-        <v>1264</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -11387,16 +11471,16 @@
         <v>277</v>
       </c>
       <c r="E261" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="F261">
         <v>4</v>
       </c>
       <c r="G261" t="s">
-        <v>956</v>
+        <v>970</v>
       </c>
       <c r="H261" t="s">
-        <v>1296</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -11413,16 +11497,16 @@
         <v>278</v>
       </c>
       <c r="E262" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="F262">
         <v>5</v>
       </c>
       <c r="G262" t="s">
-        <v>957</v>
+        <v>971</v>
       </c>
       <c r="H262" t="s">
-        <v>1297</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -11439,16 +11523,16 @@
         <v>279</v>
       </c>
       <c r="E263" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="F263">
         <v>6</v>
       </c>
       <c r="G263" t="s">
-        <v>958</v>
+        <v>972</v>
       </c>
       <c r="H263" t="s">
-        <v>1298</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -11465,16 +11549,16 @@
         <v>280</v>
       </c>
       <c r="E264" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="F264">
         <v>7</v>
       </c>
       <c r="G264" t="s">
-        <v>959</v>
+        <v>973</v>
       </c>
       <c r="H264" t="s">
-        <v>1299</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -11491,16 +11575,16 @@
         <v>281</v>
       </c>
       <c r="E265" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="F265">
         <v>8</v>
       </c>
       <c r="G265" t="s">
-        <v>960</v>
+        <v>974</v>
       </c>
       <c r="H265" t="s">
-        <v>1300</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -11517,16 +11601,16 @@
         <v>282</v>
       </c>
       <c r="E266" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="F266">
         <v>9</v>
       </c>
       <c r="G266" t="s">
-        <v>961</v>
+        <v>975</v>
       </c>
       <c r="H266" t="s">
-        <v>1301</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -11543,16 +11627,16 @@
         <v>217</v>
       </c>
       <c r="E267" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="F267">
         <v>10</v>
       </c>
       <c r="G267" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="H267" t="s">
-        <v>1236</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -11569,16 +11653,16 @@
         <v>147</v>
       </c>
       <c r="E268" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F268">
         <v>11</v>
       </c>
       <c r="G268" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="H268" t="s">
-        <v>1166</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -11595,16 +11679,16 @@
         <v>283</v>
       </c>
       <c r="E269" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F269">
         <v>12</v>
       </c>
       <c r="G269" t="s">
-        <v>962</v>
+        <v>976</v>
       </c>
       <c r="H269" t="s">
-        <v>1302</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -11621,16 +11705,16 @@
         <v>284</v>
       </c>
       <c r="E270" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="F270">
         <v>13</v>
       </c>
       <c r="G270" t="s">
-        <v>963</v>
+        <v>977</v>
       </c>
       <c r="H270" t="s">
-        <v>1303</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -11647,16 +11731,16 @@
         <v>250</v>
       </c>
       <c r="E271" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="F271">
         <v>14</v>
       </c>
       <c r="G271" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
       <c r="H271" t="s">
-        <v>1269</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -11673,16 +11757,16 @@
         <v>285</v>
       </c>
       <c r="E272" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="F272">
         <v>15</v>
       </c>
       <c r="G272" t="s">
-        <v>964</v>
+        <v>978</v>
       </c>
       <c r="H272" t="s">
-        <v>1304</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -11699,16 +11783,16 @@
         <v>286</v>
       </c>
       <c r="E273" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="F273">
         <v>16</v>
       </c>
       <c r="G273" t="s">
-        <v>965</v>
+        <v>979</v>
       </c>
       <c r="H273" t="s">
-        <v>1305</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -11725,16 +11809,16 @@
         <v>87</v>
       </c>
       <c r="E274" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F274">
         <v>17</v>
       </c>
       <c r="G274" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="H274" t="s">
-        <v>1106</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -11751,16 +11835,16 @@
         <v>287</v>
       </c>
       <c r="E275" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="F275">
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>966</v>
+        <v>980</v>
       </c>
       <c r="H275" t="s">
-        <v>1306</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -11777,16 +11861,16 @@
         <v>288</v>
       </c>
       <c r="E276" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="F276">
         <v>2</v>
       </c>
       <c r="G276" t="s">
-        <v>967</v>
+        <v>981</v>
       </c>
       <c r="H276" t="s">
-        <v>1307</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -11803,16 +11887,16 @@
         <v>289</v>
       </c>
       <c r="E277" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="F277">
         <v>3</v>
       </c>
       <c r="G277" t="s">
-        <v>968</v>
+        <v>982</v>
       </c>
       <c r="H277" t="s">
-        <v>1308</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -11829,16 +11913,16 @@
         <v>290</v>
       </c>
       <c r="E278" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="F278">
         <v>4</v>
       </c>
       <c r="G278" t="s">
-        <v>969</v>
+        <v>983</v>
       </c>
       <c r="H278" t="s">
-        <v>1309</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -11855,16 +11939,16 @@
         <v>291</v>
       </c>
       <c r="E279" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="F279">
         <v>5</v>
       </c>
       <c r="G279" t="s">
-        <v>970</v>
+        <v>984</v>
       </c>
       <c r="H279" t="s">
-        <v>1310</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -11881,16 +11965,16 @@
         <v>292</v>
       </c>
       <c r="E280" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="F280">
         <v>6</v>
       </c>
       <c r="G280" t="s">
-        <v>971</v>
+        <v>985</v>
       </c>
       <c r="H280" t="s">
-        <v>1311</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -11907,16 +11991,16 @@
         <v>293</v>
       </c>
       <c r="E281" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="F281">
         <v>7</v>
       </c>
       <c r="G281" t="s">
-        <v>972</v>
+        <v>986</v>
       </c>
       <c r="H281" t="s">
-        <v>1312</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -11933,16 +12017,16 @@
         <v>294</v>
       </c>
       <c r="E282" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="F282">
         <v>8</v>
       </c>
       <c r="G282" t="s">
-        <v>973</v>
+        <v>987</v>
       </c>
       <c r="H282" t="s">
-        <v>1313</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -11959,16 +12043,16 @@
         <v>295</v>
       </c>
       <c r="E283" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="F283">
         <v>9</v>
       </c>
       <c r="G283" t="s">
-        <v>974</v>
+        <v>988</v>
       </c>
       <c r="H283" t="s">
-        <v>1314</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -11985,16 +12069,16 @@
         <v>296</v>
       </c>
       <c r="E284" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="F284">
         <v>10</v>
       </c>
       <c r="G284" t="s">
-        <v>975</v>
+        <v>989</v>
       </c>
       <c r="H284" t="s">
-        <v>1315</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -12011,16 +12095,16 @@
         <v>164</v>
       </c>
       <c r="E285" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F285">
         <v>11</v>
       </c>
       <c r="G285" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H285" t="s">
-        <v>1183</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12037,16 +12121,16 @@
         <v>80</v>
       </c>
       <c r="E286" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="F286">
         <v>12</v>
       </c>
       <c r="G286" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="H286" t="s">
-        <v>1099</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12063,16 +12147,16 @@
         <v>194</v>
       </c>
       <c r="E287" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F287">
         <v>13</v>
       </c>
       <c r="G287" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="H287" t="s">
-        <v>1213</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -12089,16 +12173,16 @@
         <v>297</v>
       </c>
       <c r="E288" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="F288">
         <v>14</v>
       </c>
       <c r="G288" t="s">
-        <v>976</v>
+        <v>990</v>
       </c>
       <c r="H288" t="s">
-        <v>1316</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -12115,16 +12199,16 @@
         <v>298</v>
       </c>
       <c r="E289" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="F289">
         <v>15</v>
       </c>
       <c r="G289" t="s">
-        <v>977</v>
+        <v>991</v>
       </c>
       <c r="H289" t="s">
-        <v>1317</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -12141,16 +12225,16 @@
         <v>259</v>
       </c>
       <c r="E290" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="F290">
         <v>16</v>
       </c>
       <c r="G290" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
       <c r="H290" t="s">
-        <v>1278</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -12167,16 +12251,16 @@
         <v>299</v>
       </c>
       <c r="E291" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="F291">
         <v>17</v>
       </c>
       <c r="G291" t="s">
-        <v>978</v>
+        <v>992</v>
       </c>
       <c r="H291" t="s">
-        <v>1318</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -12193,16 +12277,16 @@
         <v>133</v>
       </c>
       <c r="E292" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F292">
         <v>18</v>
       </c>
       <c r="G292" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="H292" t="s">
-        <v>1152</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -12219,16 +12303,16 @@
         <v>300</v>
       </c>
       <c r="E293" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="F293">
         <v>19</v>
       </c>
       <c r="G293" t="s">
-        <v>979</v>
+        <v>993</v>
       </c>
       <c r="H293" t="s">
-        <v>1319</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -12245,16 +12329,16 @@
         <v>223</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="F294">
         <v>20</v>
       </c>
       <c r="G294" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="H294" t="s">
-        <v>1242</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -12271,16 +12355,16 @@
         <v>113</v>
       </c>
       <c r="E295" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="F295">
         <v>21</v>
       </c>
       <c r="G295" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="H295" t="s">
-        <v>1132</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -12297,16 +12381,16 @@
         <v>270</v>
       </c>
       <c r="E296" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="F296">
         <v>1</v>
       </c>
       <c r="G296" t="s">
-        <v>949</v>
+        <v>963</v>
       </c>
       <c r="H296" t="s">
-        <v>1289</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -12323,16 +12407,16 @@
         <v>238</v>
       </c>
       <c r="E297" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="F297">
         <v>2</v>
       </c>
       <c r="G297" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
       <c r="H297" t="s">
-        <v>1257</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -12349,16 +12433,16 @@
         <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="F298">
         <v>3</v>
       </c>
       <c r="G298" t="s">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="H298" t="s">
-        <v>1320</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -12375,16 +12459,16 @@
         <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="F299">
         <v>4</v>
       </c>
       <c r="G299" t="s">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="H299" t="s">
-        <v>1321</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -12401,16 +12485,16 @@
         <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="F300">
         <v>5</v>
       </c>
       <c r="G300" t="s">
-        <v>982</v>
+        <v>996</v>
       </c>
       <c r="H300" t="s">
-        <v>1322</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -12427,16 +12511,16 @@
         <v>304</v>
       </c>
       <c r="E301" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="F301">
         <v>6</v>
       </c>
       <c r="G301" t="s">
-        <v>983</v>
+        <v>997</v>
       </c>
       <c r="H301" t="s">
-        <v>1323</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -12453,16 +12537,16 @@
         <v>305</v>
       </c>
       <c r="E302" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="F302">
         <v>7</v>
       </c>
       <c r="G302" t="s">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="H302" t="s">
-        <v>1324</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -12479,16 +12563,16 @@
         <v>306</v>
       </c>
       <c r="E303" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="F303">
         <v>1</v>
       </c>
       <c r="G303" t="s">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="H303" t="s">
-        <v>1325</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -12505,16 +12589,16 @@
         <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="F304">
         <v>2</v>
       </c>
       <c r="G304" t="s">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1326</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -12531,16 +12615,16 @@
         <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F305">
         <v>3</v>
       </c>
       <c r="G305" t="s">
-        <v>987</v>
+        <v>1001</v>
       </c>
       <c r="H305" t="s">
-        <v>1327</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -12557,16 +12641,16 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="F306">
         <v>4</v>
       </c>
       <c r="G306" t="s">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="H306" t="s">
-        <v>1328</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -12583,16 +12667,16 @@
         <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="F307">
         <v>5</v>
       </c>
       <c r="G307" t="s">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="H307" t="s">
-        <v>1329</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -12609,16 +12693,16 @@
         <v>311</v>
       </c>
       <c r="E308" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="F308">
         <v>6</v>
       </c>
       <c r="G308" t="s">
-        <v>990</v>
+        <v>1004</v>
       </c>
       <c r="H308" t="s">
-        <v>1330</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -12635,16 +12719,16 @@
         <v>312</v>
       </c>
       <c r="E309" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="F309">
         <v>7</v>
       </c>
       <c r="G309" t="s">
-        <v>991</v>
+        <v>1005</v>
       </c>
       <c r="H309" t="s">
-        <v>1331</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -12661,16 +12745,16 @@
         <v>313</v>
       </c>
       <c r="E310" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="F310">
         <v>8</v>
       </c>
       <c r="G310" t="s">
-        <v>992</v>
+        <v>1006</v>
       </c>
       <c r="H310" t="s">
-        <v>1332</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -12687,16 +12771,16 @@
         <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="F311">
         <v>9</v>
       </c>
       <c r="G311" t="s">
-        <v>993</v>
+        <v>1007</v>
       </c>
       <c r="H311" t="s">
-        <v>1333</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -12713,16 +12797,16 @@
         <v>315</v>
       </c>
       <c r="E312" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="F312">
         <v>10</v>
       </c>
       <c r="G312" t="s">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="H312" t="s">
-        <v>1334</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -12739,16 +12823,16 @@
         <v>316</v>
       </c>
       <c r="E313" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="F313">
         <v>11</v>
       </c>
       <c r="G313" t="s">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="H313" t="s">
-        <v>1335</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -12765,16 +12849,16 @@
         <v>290</v>
       </c>
       <c r="E314" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="F314">
         <v>12</v>
       </c>
       <c r="G314" t="s">
-        <v>969</v>
+        <v>983</v>
       </c>
       <c r="H314" t="s">
-        <v>1309</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -12791,16 +12875,16 @@
         <v>284</v>
       </c>
       <c r="E315" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="F315">
         <v>13</v>
       </c>
       <c r="G315" t="s">
-        <v>963</v>
+        <v>977</v>
       </c>
       <c r="H315" t="s">
-        <v>1303</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -12817,16 +12901,16 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="F316">
         <v>14</v>
       </c>
       <c r="G316" t="s">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="H316" t="s">
-        <v>1336</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -12843,16 +12927,16 @@
         <v>144</v>
       </c>
       <c r="E317" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F317">
         <v>15</v>
       </c>
       <c r="G317" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="H317" t="s">
-        <v>1163</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -12869,16 +12953,16 @@
         <v>318</v>
       </c>
       <c r="E318" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="F318">
         <v>16</v>
       </c>
       <c r="G318" t="s">
-        <v>997</v>
+        <v>1011</v>
       </c>
       <c r="H318" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -12895,16 +12979,16 @@
         <v>211</v>
       </c>
       <c r="E319" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="F319">
         <v>17</v>
       </c>
       <c r="G319" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="H319" t="s">
-        <v>1230</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -12921,16 +13005,16 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="F320">
         <v>18</v>
       </c>
       <c r="G320" t="s">
-        <v>998</v>
+        <v>1012</v>
       </c>
       <c r="H320" t="s">
-        <v>1338</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -12947,16 +13031,16 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="F321">
         <v>19</v>
       </c>
       <c r="G321" t="s">
-        <v>999</v>
+        <v>1013</v>
       </c>
       <c r="H321" t="s">
-        <v>1339</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -12973,16 +13057,16 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="F322">
         <v>20</v>
       </c>
       <c r="G322" t="s">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="H322" t="s">
-        <v>1340</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -12999,16 +13083,16 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="F323">
         <v>1</v>
       </c>
       <c r="G323" t="s">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="H323" t="s">
-        <v>1341</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13025,16 +13109,16 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="F324">
         <v>2</v>
       </c>
       <c r="G324" t="s">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="H324" t="s">
-        <v>1342</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -13051,16 +13135,16 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="F325">
         <v>3</v>
       </c>
       <c r="G325" t="s">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="H325" t="s">
-        <v>1343</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -13077,16 +13161,16 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="F326">
         <v>4</v>
       </c>
       <c r="G326" t="s">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="H326" t="s">
-        <v>1344</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -13103,16 +13187,16 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="F327">
         <v>5</v>
       </c>
       <c r="G327" t="s">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="H327" t="s">
-        <v>1345</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -13129,16 +13213,16 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="F328">
         <v>6</v>
       </c>
       <c r="G328" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="H328" t="s">
-        <v>1346</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -13155,16 +13239,16 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="F329">
         <v>7</v>
       </c>
       <c r="G329" t="s">
-        <v>1007</v>
+        <v>1021</v>
       </c>
       <c r="H329" t="s">
-        <v>1347</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -13181,16 +13265,16 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="F330">
         <v>8</v>
       </c>
       <c r="G330" t="s">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="H330" t="s">
-        <v>1348</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -13207,16 +13291,16 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="F331">
         <v>9</v>
       </c>
       <c r="G331" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="H331" t="s">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -13233,146 +13317,146 @@
         <v>128</v>
       </c>
       <c r="E332" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="F332">
         <v>10</v>
       </c>
       <c r="G332" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="H332" t="s">
-        <v>1147</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="333" spans="1:8">
       <c r="A333" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B333" t="s">
         <v>32</v>
       </c>
       <c r="C333" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D333" t="s">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="E333" t="s">
-        <v>421</v>
+        <v>678</v>
       </c>
       <c r="F333">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G333" t="s">
-        <v>760</v>
+        <v>1024</v>
       </c>
       <c r="H333" t="s">
-        <v>1100</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="334" spans="1:8">
       <c r="A334" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B334" t="s">
         <v>32</v>
       </c>
       <c r="C334" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D334" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="E334" t="s">
-        <v>422</v>
+        <v>679</v>
       </c>
       <c r="F334">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G334" t="s">
-        <v>761</v>
+        <v>1025</v>
       </c>
       <c r="H334" t="s">
-        <v>1101</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="335" spans="1:8">
       <c r="A335" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B335" t="s">
         <v>32</v>
       </c>
       <c r="C335" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D335" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E335" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="F335">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G335" t="s">
-        <v>1010</v>
+        <v>1026</v>
       </c>
       <c r="H335" t="s">
-        <v>1350</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="336" spans="1:8">
       <c r="A336" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B336" t="s">
         <v>32</v>
       </c>
       <c r="C336" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D336" t="s">
-        <v>332</v>
+        <v>121</v>
       </c>
       <c r="E336" t="s">
-        <v>672</v>
+        <v>468</v>
       </c>
       <c r="F336">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G336" t="s">
-        <v>1011</v>
+        <v>814</v>
       </c>
       <c r="H336" t="s">
-        <v>1351</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="337" spans="1:8">
       <c r="A337" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B337" t="s">
         <v>32</v>
       </c>
       <c r="C337" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D337" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E337" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="F337">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G337" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="H337" t="s">
-        <v>1352</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -13386,19 +13470,19 @@
         <v>34</v>
       </c>
       <c r="D338" t="s">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="E338" t="s">
-        <v>657</v>
+        <v>428</v>
       </c>
       <c r="F338">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G338" t="s">
-        <v>1013</v>
+        <v>774</v>
       </c>
       <c r="H338" t="s">
-        <v>1353</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -13412,19 +13496,19 @@
         <v>34</v>
       </c>
       <c r="D339" t="s">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="E339" t="s">
-        <v>674</v>
+        <v>429</v>
       </c>
       <c r="F339">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G339" t="s">
-        <v>1014</v>
+        <v>775</v>
       </c>
       <c r="H339" t="s">
-        <v>1354</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -13438,19 +13522,19 @@
         <v>34</v>
       </c>
       <c r="D340" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E340" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="F340">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G340" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
       <c r="H340" t="s">
-        <v>1355</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -13464,19 +13548,19 @@
         <v>34</v>
       </c>
       <c r="D341" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E341" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="F341">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G341" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="H341" t="s">
-        <v>1356</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -13490,19 +13574,19 @@
         <v>34</v>
       </c>
       <c r="D342" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E342" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="F342">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G342" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
       <c r="H342" t="s">
-        <v>1357</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -13516,19 +13600,19 @@
         <v>34</v>
       </c>
       <c r="D343" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E343" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="F343">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G343" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
       <c r="H343" t="s">
-        <v>1358</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -13542,19 +13626,19 @@
         <v>34</v>
       </c>
       <c r="D344" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E344" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="F344">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G344" t="s">
-        <v>1019</v>
+        <v>1032</v>
       </c>
       <c r="H344" t="s">
-        <v>1359</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -13568,19 +13652,19 @@
         <v>34</v>
       </c>
       <c r="D345" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E345" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="F345">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G345" t="s">
-        <v>1020</v>
+        <v>1033</v>
       </c>
       <c r="H345" t="s">
-        <v>1360</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -13594,149 +13678,149 @@
         <v>34</v>
       </c>
       <c r="D346" t="s">
-        <v>178</v>
+        <v>341</v>
       </c>
       <c r="E346" t="s">
-        <v>518</v>
+        <v>687</v>
       </c>
       <c r="F346">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G346" t="s">
-        <v>857</v>
+        <v>1034</v>
       </c>
       <c r="H346" t="s">
-        <v>1197</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="347" spans="1:8">
       <c r="A347" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B347" t="s">
         <v>32</v>
       </c>
       <c r="C347" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D347" t="s">
         <v>342</v>
       </c>
       <c r="E347" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="F347">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G347" t="s">
-        <v>1021</v>
+        <v>1035</v>
       </c>
       <c r="H347" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="348" spans="1:8">
       <c r="A348" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B348" t="s">
         <v>32</v>
       </c>
       <c r="C348" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D348" t="s">
         <v>343</v>
       </c>
       <c r="E348" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="F348">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G348" t="s">
-        <v>1022</v>
+        <v>1036</v>
       </c>
       <c r="H348" t="s">
-        <v>1362</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="349" spans="1:8">
       <c r="A349" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B349" t="s">
         <v>32</v>
       </c>
       <c r="C349" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D349" t="s">
         <v>344</v>
       </c>
       <c r="E349" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="F349">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G349" t="s">
-        <v>1023</v>
+        <v>1037</v>
       </c>
       <c r="H349" t="s">
-        <v>1363</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="350" spans="1:8">
       <c r="A350" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B350" t="s">
         <v>32</v>
       </c>
       <c r="C350" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D350" t="s">
         <v>345</v>
       </c>
       <c r="E350" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F350">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G350" t="s">
-        <v>1024</v>
+        <v>1038</v>
       </c>
       <c r="H350" t="s">
-        <v>1364</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="351" spans="1:8">
       <c r="A351" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B351" t="s">
         <v>32</v>
       </c>
       <c r="C351" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D351" t="s">
-        <v>346</v>
+        <v>178</v>
       </c>
       <c r="E351" t="s">
-        <v>685</v>
+        <v>525</v>
       </c>
       <c r="F351">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G351" t="s">
-        <v>1025</v>
+        <v>871</v>
       </c>
       <c r="H351" t="s">
-        <v>1365</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -13750,19 +13834,19 @@
         <v>47</v>
       </c>
       <c r="D352" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E352" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="F352">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G352" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
       <c r="H352" t="s">
-        <v>1366</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -13776,19 +13860,19 @@
         <v>47</v>
       </c>
       <c r="D353" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="F353">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G353" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="H353" t="s">
-        <v>1367</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -13802,19 +13886,19 @@
         <v>47</v>
       </c>
       <c r="D354" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E354" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="F354">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G354" t="s">
-        <v>1028</v>
+        <v>1041</v>
       </c>
       <c r="H354" t="s">
-        <v>1368</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -13828,19 +13912,19 @@
         <v>47</v>
       </c>
       <c r="D355" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E355" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="F355">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G355" t="s">
-        <v>1029</v>
+        <v>1042</v>
       </c>
       <c r="H355" t="s">
-        <v>1369</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -13854,19 +13938,19 @@
         <v>47</v>
       </c>
       <c r="D356" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="E356" t="s">
-        <v>561</v>
+        <v>696</v>
       </c>
       <c r="F356">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G356" t="s">
-        <v>900</v>
+        <v>1043</v>
       </c>
       <c r="H356" t="s">
-        <v>1240</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -13883,16 +13967,16 @@
         <v>351</v>
       </c>
       <c r="E357" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="F357">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G357" t="s">
-        <v>1030</v>
+        <v>1044</v>
       </c>
       <c r="H357" t="s">
-        <v>1370</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -13906,227 +13990,227 @@
         <v>47</v>
       </c>
       <c r="D358" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
       <c r="E358" t="s">
-        <v>620</v>
+        <v>698</v>
       </c>
       <c r="F358">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G358" t="s">
-        <v>959</v>
+        <v>1045</v>
       </c>
       <c r="H358" t="s">
-        <v>1299</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="359" spans="1:8">
       <c r="A359" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B359" t="s">
         <v>32</v>
       </c>
       <c r="C359" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D359" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="E359" t="s">
-        <v>605</v>
+        <v>699</v>
       </c>
       <c r="F359">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G359" t="s">
-        <v>944</v>
+        <v>1046</v>
       </c>
       <c r="H359" t="s">
-        <v>1284</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="360" spans="1:8">
       <c r="A360" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B360" t="s">
         <v>32</v>
       </c>
       <c r="C360" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D360" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E360" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="F360">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G360" t="s">
-        <v>1031</v>
+        <v>1047</v>
       </c>
       <c r="H360" t="s">
-        <v>1371</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="361" spans="1:8">
       <c r="A361" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B361" t="s">
         <v>32</v>
       </c>
       <c r="C361" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D361" t="s">
-        <v>353</v>
+        <v>221</v>
       </c>
       <c r="E361" t="s">
-        <v>692</v>
+        <v>568</v>
       </c>
       <c r="F361">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G361" t="s">
-        <v>1032</v>
+        <v>914</v>
       </c>
       <c r="H361" t="s">
-        <v>1372</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="362" spans="1:8">
       <c r="A362" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B362" t="s">
         <v>32</v>
       </c>
       <c r="C362" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D362" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E362" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="F362">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G362" t="s">
-        <v>1033</v>
+        <v>1048</v>
       </c>
       <c r="H362" t="s">
-        <v>1373</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="363" spans="1:8">
       <c r="A363" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B363" t="s">
         <v>32</v>
       </c>
       <c r="C363" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D363" t="s">
-        <v>355</v>
+        <v>280</v>
       </c>
       <c r="E363" t="s">
-        <v>694</v>
+        <v>627</v>
       </c>
       <c r="F363">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G363" t="s">
-        <v>1034</v>
+        <v>973</v>
       </c>
       <c r="H363" t="s">
-        <v>1374</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="364" spans="1:8">
       <c r="A364" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B364" t="s">
         <v>32</v>
       </c>
       <c r="C364" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D364" t="s">
-        <v>356</v>
+        <v>265</v>
       </c>
       <c r="E364" t="s">
-        <v>695</v>
+        <v>612</v>
       </c>
       <c r="F364">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G364" t="s">
-        <v>1035</v>
+        <v>958</v>
       </c>
       <c r="H364" t="s">
-        <v>1375</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="365" spans="1:8">
       <c r="A365" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B365" t="s">
         <v>32</v>
       </c>
       <c r="C365" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D365" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E365" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="F365">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G365" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
       <c r="H365" t="s">
-        <v>1376</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="366" spans="1:8">
       <c r="A366" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B366" t="s">
         <v>32</v>
       </c>
       <c r="C366" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D366" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E366" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="F366">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G366" t="s">
-        <v>1037</v>
+        <v>1050</v>
       </c>
       <c r="H366" t="s">
-        <v>1377</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -14140,19 +14224,19 @@
         <v>49</v>
       </c>
       <c r="D367" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E367" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="F367">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G367" t="s">
-        <v>1038</v>
+        <v>1051</v>
       </c>
       <c r="H367" t="s">
-        <v>1378</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -14166,19 +14250,19 @@
         <v>49</v>
       </c>
       <c r="D368" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E368" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="F368">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G368" t="s">
-        <v>1039</v>
+        <v>1052</v>
       </c>
       <c r="H368" t="s">
-        <v>1379</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -14192,19 +14276,19 @@
         <v>49</v>
       </c>
       <c r="D369" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E369" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="F369">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G369" t="s">
-        <v>1040</v>
+        <v>1053</v>
       </c>
       <c r="H369" t="s">
-        <v>1380</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -14218,19 +14302,19 @@
         <v>49</v>
       </c>
       <c r="D370" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E370" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="F370">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G370" t="s">
-        <v>1041</v>
+        <v>1054</v>
       </c>
       <c r="H370" t="s">
-        <v>1381</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -14244,19 +14328,19 @@
         <v>49</v>
       </c>
       <c r="D371" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E371" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="F371">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G371" t="s">
-        <v>1042</v>
+        <v>1055</v>
       </c>
       <c r="H371" t="s">
-        <v>1382</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -14270,19 +14354,19 @@
         <v>49</v>
       </c>
       <c r="D372" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E372" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="F372">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G372" t="s">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="H372" t="s">
-        <v>1383</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -14296,747 +14380,747 @@
         <v>49</v>
       </c>
       <c r="D373" t="s">
-        <v>233</v>
+        <v>364</v>
       </c>
       <c r="E373" t="s">
-        <v>573</v>
+        <v>710</v>
       </c>
       <c r="F373">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G373" t="s">
-        <v>912</v>
+        <v>1057</v>
       </c>
       <c r="H373" t="s">
-        <v>1252</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="374" spans="1:8">
       <c r="A374" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B374" t="s">
         <v>32</v>
       </c>
       <c r="C374" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D374" t="s">
         <v>365</v>
       </c>
       <c r="E374" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="F374">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G374" t="s">
-        <v>1044</v>
+        <v>1058</v>
       </c>
       <c r="H374" t="s">
-        <v>1384</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="375" spans="1:8">
       <c r="A375" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B375" t="s">
         <v>32</v>
       </c>
       <c r="C375" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D375" t="s">
         <v>366</v>
       </c>
       <c r="E375" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="F375">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G375" t="s">
-        <v>1045</v>
+        <v>1059</v>
       </c>
       <c r="H375" t="s">
-        <v>1385</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="376" spans="1:8">
       <c r="A376" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B376" t="s">
         <v>32</v>
       </c>
       <c r="C376" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D376" t="s">
-        <v>252</v>
+        <v>367</v>
       </c>
       <c r="E376" t="s">
-        <v>592</v>
+        <v>713</v>
       </c>
       <c r="F376">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G376" t="s">
-        <v>931</v>
+        <v>1060</v>
       </c>
       <c r="H376" t="s">
-        <v>1271</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="377" spans="1:8">
       <c r="A377" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B377" t="s">
         <v>32</v>
       </c>
       <c r="C377" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D377" t="s">
-        <v>87</v>
+        <v>368</v>
       </c>
       <c r="E377" t="s">
-        <v>427</v>
+        <v>714</v>
       </c>
       <c r="F377">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G377" t="s">
-        <v>766</v>
+        <v>1061</v>
       </c>
       <c r="H377" t="s">
-        <v>1106</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="378" spans="1:8">
       <c r="A378" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B378" t="s">
         <v>32</v>
       </c>
       <c r="C378" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D378" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E378" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F378">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G378" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="H378" t="s">
-        <v>1261</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="379" spans="1:8">
       <c r="A379" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B379" t="s">
         <v>32</v>
       </c>
       <c r="C379" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D379" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E379" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="F379">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G379" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
       <c r="H379" t="s">
-        <v>1386</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="380" spans="1:8">
       <c r="A380" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B380" t="s">
         <v>32</v>
       </c>
       <c r="C380" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D380" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E380" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="F380">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G380" t="s">
-        <v>1047</v>
+        <v>1063</v>
       </c>
       <c r="H380" t="s">
-        <v>1387</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="381" spans="1:8">
       <c r="A381" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B381" t="s">
         <v>32</v>
       </c>
       <c r="C381" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D381" t="s">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="E381" t="s">
-        <v>708</v>
+        <v>614</v>
       </c>
       <c r="F381">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G381" t="s">
-        <v>1048</v>
+        <v>960</v>
       </c>
       <c r="H381" t="s">
-        <v>1388</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="382" spans="1:8">
       <c r="A382" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B382" t="s">
         <v>32</v>
       </c>
       <c r="C382" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D382" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E382" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F382">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G382" t="s">
-        <v>1049</v>
+        <v>1064</v>
       </c>
       <c r="H382" t="s">
-        <v>1389</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="383" spans="1:8">
       <c r="A383" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B383" t="s">
         <v>32</v>
       </c>
       <c r="C383" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D383" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E383" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="F383">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G383" t="s">
-        <v>1050</v>
+        <v>1065</v>
       </c>
       <c r="H383" t="s">
-        <v>1390</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="384" spans="1:8">
       <c r="A384" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B384" t="s">
         <v>32</v>
       </c>
       <c r="C384" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D384" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="E384" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="F384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G384" t="s">
-        <v>1033</v>
+        <v>1066</v>
       </c>
       <c r="H384" t="s">
-        <v>1373</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="385" spans="1:8">
       <c r="A385" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B385" t="s">
         <v>32</v>
       </c>
       <c r="C385" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D385" t="s">
-        <v>372</v>
+        <v>252</v>
       </c>
       <c r="E385" t="s">
-        <v>711</v>
+        <v>599</v>
       </c>
       <c r="F385">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G385" t="s">
-        <v>1051</v>
+        <v>945</v>
       </c>
       <c r="H385" t="s">
-        <v>1391</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="386" spans="1:8">
       <c r="A386" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B386" t="s">
         <v>32</v>
       </c>
       <c r="C386" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D386" t="s">
-        <v>373</v>
+        <v>87</v>
       </c>
       <c r="E386" t="s">
-        <v>712</v>
+        <v>434</v>
       </c>
       <c r="F386">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G386" t="s">
-        <v>1052</v>
+        <v>780</v>
       </c>
       <c r="H386" t="s">
-        <v>1392</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="387" spans="1:8">
       <c r="A387" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B387" t="s">
         <v>32</v>
       </c>
       <c r="C387" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D387" t="s">
-        <v>374</v>
+        <v>242</v>
       </c>
       <c r="E387" t="s">
-        <v>713</v>
+        <v>589</v>
       </c>
       <c r="F387">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G387" t="s">
-        <v>1053</v>
+        <v>935</v>
       </c>
       <c r="H387" t="s">
-        <v>1393</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="388" spans="1:8">
       <c r="A388" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B388" t="s">
         <v>32</v>
       </c>
       <c r="C388" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D388" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E388" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="F388">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G388" t="s">
-        <v>1054</v>
+        <v>1067</v>
       </c>
       <c r="H388" t="s">
-        <v>1394</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="389" spans="1:8">
       <c r="A389" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B389" t="s">
         <v>32</v>
       </c>
       <c r="C389" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D389" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E389" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="F389">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G389" t="s">
-        <v>1055</v>
+        <v>1068</v>
       </c>
       <c r="H389" t="s">
-        <v>1395</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="390" spans="1:8">
       <c r="A390" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B390" t="s">
         <v>32</v>
       </c>
       <c r="C390" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D390" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E390" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="F390">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G390" t="s">
-        <v>1056</v>
+        <v>1069</v>
       </c>
       <c r="H390" t="s">
-        <v>1396</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="391" spans="1:8">
       <c r="A391" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B391" t="s">
         <v>32</v>
       </c>
       <c r="C391" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D391" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E391" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="F391">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G391" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
       <c r="H391" t="s">
-        <v>1397</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="392" spans="1:8">
       <c r="A392" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B392" t="s">
         <v>32</v>
       </c>
       <c r="C392" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D392" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E392" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="F392">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G392" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
       <c r="H392" t="s">
-        <v>1398</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="393" spans="1:8">
       <c r="A393" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B393" t="s">
         <v>32</v>
       </c>
       <c r="C393" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D393" t="s">
-        <v>131</v>
+        <v>358</v>
       </c>
       <c r="E393" t="s">
-        <v>471</v>
+        <v>704</v>
       </c>
       <c r="F393">
         <v>1</v>
       </c>
       <c r="G393" t="s">
-        <v>810</v>
+        <v>1051</v>
       </c>
       <c r="H393" t="s">
-        <v>1150</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="394" spans="1:8">
       <c r="A394" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B394" t="s">
         <v>32</v>
       </c>
       <c r="C394" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D394" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E394" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="F394">
         <v>2</v>
       </c>
       <c r="G394" t="s">
-        <v>1059</v>
+        <v>1072</v>
       </c>
       <c r="H394" t="s">
-        <v>1399</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="395" spans="1:8">
       <c r="A395" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B395" t="s">
         <v>32</v>
       </c>
       <c r="C395" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D395" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E395" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="F395">
         <v>3</v>
       </c>
       <c r="G395" t="s">
-        <v>1060</v>
+        <v>1073</v>
       </c>
       <c r="H395" t="s">
-        <v>1400</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="396" spans="1:8">
       <c r="A396" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B396" t="s">
         <v>32</v>
       </c>
       <c r="C396" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D396" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E396" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="F396">
         <v>4</v>
       </c>
       <c r="G396" t="s">
-        <v>1061</v>
+        <v>1074</v>
       </c>
       <c r="H396" t="s">
-        <v>1401</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="397" spans="1:8">
       <c r="A397" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B397" t="s">
         <v>32</v>
       </c>
       <c r="C397" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D397" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E397" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="F397">
         <v>5</v>
       </c>
       <c r="G397" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
       <c r="H397" t="s">
-        <v>1402</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="398" spans="1:8">
       <c r="A398" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B398" t="s">
         <v>32</v>
       </c>
       <c r="C398" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D398" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E398" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="F398">
         <v>6</v>
       </c>
       <c r="G398" t="s">
-        <v>1063</v>
+        <v>1076</v>
       </c>
       <c r="H398" t="s">
-        <v>1403</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="399" spans="1:8">
       <c r="A399" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B399" t="s">
         <v>32</v>
       </c>
       <c r="C399" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D399" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E399" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="F399">
         <v>7</v>
       </c>
       <c r="G399" t="s">
-        <v>1064</v>
+        <v>1077</v>
       </c>
       <c r="H399" t="s">
-        <v>1404</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="400" spans="1:8">
       <c r="A400" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B400" t="s">
         <v>32</v>
       </c>
       <c r="C400" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D400" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E400" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="F400">
         <v>8</v>
       </c>
       <c r="G400" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="H400" t="s">
-        <v>1405</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="401" spans="1:8">
       <c r="A401" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B401" t="s">
         <v>32</v>
       </c>
       <c r="C401" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D401" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E401" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="F401">
         <v>9</v>
       </c>
       <c r="G401" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
       <c r="H401" t="s">
-        <v>1406</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -15050,19 +15134,19 @@
         <v>52</v>
       </c>
       <c r="D402" t="s">
-        <v>388</v>
+        <v>131</v>
       </c>
       <c r="E402" t="s">
-        <v>727</v>
+        <v>478</v>
       </c>
       <c r="F402">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G402" t="s">
-        <v>1067</v>
+        <v>824</v>
       </c>
       <c r="H402" t="s">
-        <v>1407</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -15076,19 +15160,19 @@
         <v>52</v>
       </c>
       <c r="D403" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E403" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="F403">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G403" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
       <c r="H403" t="s">
-        <v>1408</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -15102,19 +15186,19 @@
         <v>52</v>
       </c>
       <c r="D404" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E404" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="F404">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G404" t="s">
-        <v>1069</v>
+        <v>1081</v>
       </c>
       <c r="H404" t="s">
-        <v>1409</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -15128,19 +15212,19 @@
         <v>52</v>
       </c>
       <c r="D405" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E405" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="F405">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G405" t="s">
-        <v>1070</v>
+        <v>1082</v>
       </c>
       <c r="H405" t="s">
-        <v>1410</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -15154,19 +15238,253 @@
         <v>52</v>
       </c>
       <c r="D406" t="s">
+        <v>390</v>
+      </c>
+      <c r="E406" t="s">
+        <v>736</v>
+      </c>
+      <c r="F406">
+        <v>5</v>
+      </c>
+      <c r="G406" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H406" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
+      <c r="A407" t="s">
+        <v>31</v>
+      </c>
+      <c r="B407" t="s">
+        <v>32</v>
+      </c>
+      <c r="C407" t="s">
+        <v>52</v>
+      </c>
+      <c r="D407" t="s">
+        <v>391</v>
+      </c>
+      <c r="E407" t="s">
+        <v>737</v>
+      </c>
+      <c r="F407">
+        <v>6</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H407" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
+      <c r="A408" t="s">
+        <v>31</v>
+      </c>
+      <c r="B408" t="s">
+        <v>32</v>
+      </c>
+      <c r="C408" t="s">
+        <v>52</v>
+      </c>
+      <c r="D408" t="s">
         <v>392</v>
       </c>
-      <c r="E406" t="s">
-        <v>731</v>
-      </c>
-      <c r="F406">
+      <c r="E408" t="s">
+        <v>738</v>
+      </c>
+      <c r="F408">
+        <v>7</v>
+      </c>
+      <c r="G408" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H408" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
+      <c r="A409" t="s">
+        <v>31</v>
+      </c>
+      <c r="B409" t="s">
+        <v>32</v>
+      </c>
+      <c r="C409" t="s">
+        <v>52</v>
+      </c>
+      <c r="D409" t="s">
+        <v>393</v>
+      </c>
+      <c r="E409" t="s">
+        <v>739</v>
+      </c>
+      <c r="F409">
+        <v>8</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H409" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
+      <c r="A410" t="s">
+        <v>31</v>
+      </c>
+      <c r="B410" t="s">
+        <v>32</v>
+      </c>
+      <c r="C410" t="s">
+        <v>52</v>
+      </c>
+      <c r="D410" t="s">
+        <v>394</v>
+      </c>
+      <c r="E410" t="s">
+        <v>740</v>
+      </c>
+      <c r="F410">
+        <v>9</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H410" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
+      <c r="A411" t="s">
+        <v>31</v>
+      </c>
+      <c r="B411" t="s">
+        <v>32</v>
+      </c>
+      <c r="C411" t="s">
+        <v>52</v>
+      </c>
+      <c r="D411" t="s">
+        <v>395</v>
+      </c>
+      <c r="E411" t="s">
+        <v>741</v>
+      </c>
+      <c r="F411">
+        <v>10</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H411" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
+      <c r="A412" t="s">
+        <v>31</v>
+      </c>
+      <c r="B412" t="s">
+        <v>32</v>
+      </c>
+      <c r="C412" t="s">
+        <v>52</v>
+      </c>
+      <c r="D412" t="s">
+        <v>396</v>
+      </c>
+      <c r="E412" t="s">
+        <v>742</v>
+      </c>
+      <c r="F412">
+        <v>11</v>
+      </c>
+      <c r="G412" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H412" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="A413" t="s">
+        <v>31</v>
+      </c>
+      <c r="B413" t="s">
+        <v>32</v>
+      </c>
+      <c r="C413" t="s">
+        <v>52</v>
+      </c>
+      <c r="D413" t="s">
+        <v>397</v>
+      </c>
+      <c r="E413" t="s">
+        <v>743</v>
+      </c>
+      <c r="F413">
+        <v>12</v>
+      </c>
+      <c r="G413" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H413" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="A414" t="s">
+        <v>31</v>
+      </c>
+      <c r="B414" t="s">
+        <v>32</v>
+      </c>
+      <c r="C414" t="s">
+        <v>52</v>
+      </c>
+      <c r="D414" t="s">
+        <v>398</v>
+      </c>
+      <c r="E414" t="s">
+        <v>744</v>
+      </c>
+      <c r="F414">
+        <v>13</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H414" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
+      <c r="A415" t="s">
+        <v>31</v>
+      </c>
+      <c r="B415" t="s">
+        <v>32</v>
+      </c>
+      <c r="C415" t="s">
+        <v>52</v>
+      </c>
+      <c r="D415" t="s">
+        <v>399</v>
+      </c>
+      <c r="E415" t="s">
+        <v>745</v>
+      </c>
+      <c r="F415">
         <v>14</v>
       </c>
-      <c r="G406" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H406" t="s">
-        <v>1411</v>
+      <c r="G415" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H415" t="s">
+        <v>1439</v>
       </c>
     </row>
   </sheetData>
